--- a/documentation/tests/test-navigation.xlsx
+++ b/documentation/tests/test-navigation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="44">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -349,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,10 +450,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,10 +460,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -610,7 +602,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,13 +737,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -764,13 +758,15 @@
         <v>22</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -780,20 +776,22 @@
         <v>23</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -805,20 +803,22 @@
         <v>26</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -828,20 +828,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -853,47 +855,51 @@
         <v>26</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" s="31" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" s="29" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
         <v>4</v>
       </c>
@@ -901,66 +907,72 @@
         <v>23</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" s="31" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" s="29" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
       <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>5</v>
       </c>
@@ -968,47 +980,51 @@
         <v>36</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
       <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>6</v>
       </c>
@@ -1016,47 +1032,51 @@
         <v>36</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>7</v>
       </c>
@@ -1064,66 +1084,72 @@
         <v>27</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" s="31" customFormat="true" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" s="29" customFormat="true" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
         <v>8</v>
       </c>
@@ -1131,47 +1157,51 @@
         <v>38</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
         <v>9</v>
       </c>
@@ -1179,47 +1209,51 @@
         <v>38</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
         <v>10</v>
       </c>
@@ -1227,66 +1261,72 @@
         <v>30</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" s="31" customFormat="true" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" s="29" customFormat="true" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
         <v>11</v>
       </c>
@@ -1294,47 +1334,51 @@
         <v>40</v>
       </c>
       <c r="C30" s="23"/>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
       <c r="B31" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
         <v>12</v>
       </c>
@@ -1342,48 +1386,52 @@
         <v>40</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1397,64 +1445,64 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="11"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="37" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -1519,13 +1567,15 @@
         <v>21</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
     </row>
@@ -1538,13 +1588,15 @@
         <v>22</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
@@ -1554,20 +1606,22 @@
         <v>23</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
@@ -1579,20 +1633,22 @@
         <v>26</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
@@ -1602,20 +1658,22 @@
         <v>27</v>
       </c>
       <c r="C45" s="23"/>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
@@ -1627,47 +1685,51 @@
         <v>26</v>
       </c>
       <c r="C46" s="23"/>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
-    <row r="47" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22"/>
       <c r="B47" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-    </row>
-    <row r="48" s="31" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+    </row>
+    <row r="48" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
         <v>4</v>
       </c>
@@ -1675,41 +1737,45 @@
         <v>23</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="26" t="str">
+      <c r="G49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="25" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="25"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -1717,22 +1783,24 @@
         <v>19</v>
       </c>
       <c r="C50" s="23"/>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="26" t="str">
+      <c r="G50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="25" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
@@ -1742,22 +1810,24 @@
         <v>36</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="26" t="str">
+      <c r="G51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="25" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
@@ -1765,22 +1835,24 @@
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="26" t="str">
+      <c r="G52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="25" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
@@ -1790,22 +1862,24 @@
         <v>36</v>
       </c>
       <c r="C53" s="23"/>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="26" t="str">
+      <c r="G53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="25" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="25"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22"/>
@@ -1813,22 +1887,24 @@
         <v>30</v>
       </c>
       <c r="C54" s="23"/>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="26" t="str">
+      <c r="G54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="25" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
@@ -1838,41 +1914,45 @@
         <v>27</v>
       </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="26" t="str">
+      <c r="G55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="25" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="25"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="26" t="str">
+      <c r="G56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="25" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22"/>
@@ -1880,22 +1960,24 @@
         <v>19</v>
       </c>
       <c r="C57" s="23"/>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="16"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="26" t="str">
+      <c r="G57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="25" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="26"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="n">
@@ -1905,22 +1987,24 @@
         <v>38</v>
       </c>
       <c r="C58" s="23"/>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="26" t="str">
+      <c r="G58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="25" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="26"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="22"/>
@@ -1928,22 +2012,24 @@
         <v>30</v>
       </c>
       <c r="C59" s="23"/>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="26" t="str">
+      <c r="G59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="25" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
@@ -1953,22 +2039,24 @@
         <v>38</v>
       </c>
       <c r="C60" s="23"/>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="26" t="str">
+      <c r="G60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="25" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
@@ -1976,22 +2064,24 @@
         <v>23</v>
       </c>
       <c r="C61" s="23"/>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="26" t="str">
+      <c r="G61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="25" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="26"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
@@ -2001,41 +2091,45 @@
         <v>30</v>
       </c>
       <c r="C62" s="23"/>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="26" t="str">
+      <c r="G62" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="25" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="25"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="32"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="26" t="str">
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="25" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="26"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22"/>
@@ -2043,22 +2137,24 @@
         <v>19</v>
       </c>
       <c r="C64" s="23"/>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="26" t="str">
+      <c r="G64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="25" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="n">
@@ -2068,22 +2164,24 @@
         <v>40</v>
       </c>
       <c r="C65" s="23"/>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="26" t="str">
+      <c r="G65" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="25" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="26"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
@@ -2091,22 +2189,24 @@
         <v>23</v>
       </c>
       <c r="C66" s="23"/>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="26" t="str">
+      <c r="G66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="25" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="n">
@@ -2116,22 +2216,24 @@
         <v>40</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="26" t="str">
+      <c r="G67" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="25" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="22"/>
@@ -2139,22 +2241,24 @@
         <v>27</v>
       </c>
       <c r="C68" s="23"/>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="26" t="str">
+      <c r="G68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="25" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="26"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="25"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2524,7 +2628,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2632,10 +2736,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2656,13 +2760,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -2675,13 +2781,15 @@
         <v>22</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -2691,20 +2799,22 @@
         <v>23</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -2716,20 +2826,22 @@
         <v>26</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -2739,20 +2851,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -2764,20 +2878,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -2787,22 +2903,24 @@
         <v>30</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
@@ -2812,41 +2930,45 @@
         <v>23</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
@@ -2854,22 +2976,24 @@
         <v>19</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -2879,22 +3003,24 @@
         <v>36</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
@@ -2902,22 +3028,24 @@
         <v>27</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -2927,22 +3055,24 @@
         <v>36</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
@@ -2950,22 +3080,24 @@
         <v>30</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
@@ -2975,41 +3107,45 @@
         <v>27</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -3017,22 +3153,24 @@
         <v>19</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
@@ -3042,22 +3180,24 @@
         <v>38</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
@@ -3065,22 +3205,24 @@
         <v>30</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -3090,22 +3232,24 @@
         <v>38</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
@@ -3113,22 +3257,24 @@
         <v>23</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
@@ -3138,41 +3284,45 @@
         <v>30</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
@@ -3180,22 +3330,24 @@
         <v>19</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
@@ -3205,22 +3357,24 @@
         <v>40</v>
       </c>
       <c r="C30" s="23"/>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
@@ -3228,22 +3382,24 @@
         <v>23</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -3253,22 +3409,24 @@
         <v>40</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -3276,22 +3434,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
@@ -3308,64 +3468,64 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="37" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="11"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="37" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -3406,10 +3566,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="44"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="18" t="s">
         <v>18</v>
       </c>
@@ -3430,13 +3590,15 @@
         <v>21</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
     </row>
@@ -3449,13 +3611,15 @@
         <v>22</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
@@ -3465,20 +3629,22 @@
         <v>23</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
@@ -3490,20 +3656,22 @@
         <v>26</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
@@ -3513,20 +3681,22 @@
         <v>27</v>
       </c>
       <c r="C45" s="23"/>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
@@ -3538,20 +3708,22 @@
         <v>26</v>
       </c>
       <c r="C46" s="23"/>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
@@ -3561,22 +3733,24 @@
         <v>30</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
@@ -3586,41 +3760,45 @@
         <v>23</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="26" t="str">
+      <c r="G49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="25" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="25"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -3628,22 +3806,24 @@
         <v>19</v>
       </c>
       <c r="C50" s="23"/>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="26" t="str">
+      <c r="G50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="25" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
@@ -3653,22 +3833,24 @@
         <v>36</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="26" t="str">
+      <c r="G51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="25" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
@@ -3676,22 +3858,24 @@
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="26" t="str">
+      <c r="G52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="25" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
@@ -3701,22 +3885,24 @@
         <v>36</v>
       </c>
       <c r="C53" s="23"/>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="26" t="str">
+      <c r="G53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="25" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="25"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22"/>
@@ -3724,22 +3910,24 @@
         <v>30</v>
       </c>
       <c r="C54" s="23"/>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="26" t="str">
+      <c r="G54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="25" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
@@ -3749,41 +3937,45 @@
         <v>27</v>
       </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="26" t="str">
+      <c r="G55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="25" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="25"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="26" t="str">
+      <c r="G56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="25" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22"/>
@@ -3791,22 +3983,24 @@
         <v>19</v>
       </c>
       <c r="C57" s="23"/>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="16"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="26" t="str">
+      <c r="G57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="25" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="26"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="n">
@@ -3816,22 +4010,24 @@
         <v>38</v>
       </c>
       <c r="C58" s="23"/>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="26" t="str">
+      <c r="G58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="25" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="26"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="22"/>
@@ -3839,22 +4035,24 @@
         <v>30</v>
       </c>
       <c r="C59" s="23"/>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="26" t="str">
+      <c r="G59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="25" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
@@ -3864,22 +4062,24 @@
         <v>38</v>
       </c>
       <c r="C60" s="23"/>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="26" t="str">
+      <c r="G60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="25" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
@@ -3887,22 +4087,24 @@
         <v>23</v>
       </c>
       <c r="C61" s="23"/>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="26" t="str">
+      <c r="G61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="25" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="26"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
@@ -3912,41 +4114,45 @@
         <v>30</v>
       </c>
       <c r="C62" s="23"/>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="26" t="str">
+      <c r="G62" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="25" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="25"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="32"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="26" t="str">
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="25" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="26"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22"/>
@@ -3954,22 +4160,24 @@
         <v>19</v>
       </c>
       <c r="C64" s="23"/>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="26" t="str">
+      <c r="G64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="25" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="n">
@@ -3979,22 +4187,24 @@
         <v>40</v>
       </c>
       <c r="C65" s="23"/>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="26" t="str">
+      <c r="G65" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="25" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="26"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
@@ -4002,22 +4212,24 @@
         <v>23</v>
       </c>
       <c r="C66" s="23"/>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="26" t="str">
+      <c r="G66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="25" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="n">
@@ -4027,22 +4239,24 @@
         <v>40</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="26" t="str">
+      <c r="G67" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="25" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="22"/>
@@ -4050,22 +4264,24 @@
         <v>27</v>
       </c>
       <c r="C68" s="23"/>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="26" t="str">
+      <c r="G68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="25" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="26"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="25"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4427,7 +4643,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4536,10 +4752,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
@@ -4560,13 +4776,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -4579,13 +4797,15 @@
         <v>22</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -4595,20 +4815,22 @@
         <v>23</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -4620,20 +4842,22 @@
         <v>26</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -4643,20 +4867,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -4668,20 +4894,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -4691,22 +4919,24 @@
         <v>30</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
@@ -4716,41 +4946,45 @@
         <v>23</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
@@ -4758,22 +4992,24 @@
         <v>19</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -4783,22 +5019,24 @@
         <v>36</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
@@ -4806,22 +5044,24 @@
         <v>27</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -4831,22 +5071,24 @@
         <v>36</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
@@ -4854,22 +5096,24 @@
         <v>30</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
@@ -4879,41 +5123,45 @@
         <v>27</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -4921,22 +5169,24 @@
         <v>19</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
@@ -4946,22 +5196,24 @@
         <v>38</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
@@ -4969,22 +5221,24 @@
         <v>30</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -4994,22 +5248,24 @@
         <v>38</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
@@ -5017,22 +5273,24 @@
         <v>23</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
@@ -5042,41 +5300,45 @@
         <v>30</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
@@ -5084,22 +5346,24 @@
         <v>19</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
@@ -5109,22 +5373,24 @@
         <v>40</v>
       </c>
       <c r="C30" s="23"/>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
@@ -5132,22 +5398,24 @@
         <v>23</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -5157,22 +5425,24 @@
         <v>40</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -5180,22 +5450,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
@@ -5212,64 +5484,64 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="37" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="11"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="37" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -5310,10 +5582,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="44"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="18" t="s">
         <v>18</v>
       </c>
@@ -5334,13 +5606,15 @@
         <v>21</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
     </row>
@@ -5353,13 +5627,15 @@
         <v>22</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
@@ -5369,20 +5645,22 @@
         <v>23</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
@@ -5394,20 +5672,22 @@
         <v>26</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
@@ -5417,20 +5697,22 @@
         <v>27</v>
       </c>
       <c r="C45" s="23"/>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
@@ -5442,20 +5724,22 @@
         <v>26</v>
       </c>
       <c r="C46" s="23"/>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
@@ -5465,22 +5749,24 @@
         <v>30</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
@@ -5490,41 +5776,45 @@
         <v>23</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="26" t="str">
+      <c r="G49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="25" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="25"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -5532,22 +5822,24 @@
         <v>19</v>
       </c>
       <c r="C50" s="23"/>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="26" t="str">
+      <c r="G50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="25" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
@@ -5557,22 +5849,24 @@
         <v>36</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="26" t="str">
+      <c r="G51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="25" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
@@ -5580,22 +5874,24 @@
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="26" t="str">
+      <c r="G52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="25" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
@@ -5605,22 +5901,24 @@
         <v>36</v>
       </c>
       <c r="C53" s="23"/>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="26" t="str">
+      <c r="G53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="25" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="25"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22"/>
@@ -5628,22 +5926,24 @@
         <v>30</v>
       </c>
       <c r="C54" s="23"/>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="26" t="str">
+      <c r="G54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="25" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
@@ -5653,41 +5953,45 @@
         <v>27</v>
       </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="26" t="str">
+      <c r="G55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="25" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="25"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="26" t="str">
+      <c r="G56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="25" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22"/>
@@ -5695,22 +5999,24 @@
         <v>19</v>
       </c>
       <c r="C57" s="23"/>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="16"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="26" t="str">
+      <c r="G57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="25" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="26"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="n">
@@ -5720,22 +6026,24 @@
         <v>38</v>
       </c>
       <c r="C58" s="23"/>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="26" t="str">
+      <c r="G58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="25" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="26"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="22"/>
@@ -5743,22 +6051,24 @@
         <v>30</v>
       </c>
       <c r="C59" s="23"/>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="26" t="str">
+      <c r="G59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="25" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
@@ -5768,22 +6078,24 @@
         <v>38</v>
       </c>
       <c r="C60" s="23"/>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="26" t="str">
+      <c r="G60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="25" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
@@ -5791,22 +6103,24 @@
         <v>23</v>
       </c>
       <c r="C61" s="23"/>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="26" t="str">
+      <c r="G61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="25" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="26"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
@@ -5816,41 +6130,45 @@
         <v>30</v>
       </c>
       <c r="C62" s="23"/>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="26" t="str">
+      <c r="G62" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="25" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="25"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="32"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="26" t="str">
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="25" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="26"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22"/>
@@ -5858,22 +6176,24 @@
         <v>19</v>
       </c>
       <c r="C64" s="23"/>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="26" t="str">
+      <c r="G64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="25" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="n">
@@ -5883,22 +6203,24 @@
         <v>40</v>
       </c>
       <c r="C65" s="23"/>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="26" t="str">
+      <c r="G65" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="25" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="26"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
@@ -5906,22 +6228,24 @@
         <v>23</v>
       </c>
       <c r="C66" s="23"/>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="26" t="str">
+      <c r="G66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="25" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="n">
@@ -5931,22 +6255,24 @@
         <v>40</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="26" t="str">
+      <c r="G67" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="25" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="22"/>
@@ -5954,22 +6280,24 @@
         <v>27</v>
       </c>
       <c r="C68" s="23"/>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="26" t="str">
+      <c r="G68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="25" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="26"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="25"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6331,7 +6659,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6439,10 +6767,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
@@ -6463,13 +6791,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -6482,13 +6812,15 @@
         <v>22</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -6498,20 +6830,22 @@
         <v>23</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -6523,20 +6857,22 @@
         <v>26</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -6546,20 +6882,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -6571,20 +6909,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -6594,22 +6934,24 @@
         <v>30</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
@@ -6619,41 +6961,45 @@
         <v>23</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
@@ -6661,22 +7007,24 @@
         <v>19</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
@@ -6686,22 +7034,24 @@
         <v>36</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
@@ -6709,22 +7059,24 @@
         <v>27</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
@@ -6734,22 +7086,24 @@
         <v>36</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
@@ -6757,22 +7111,24 @@
         <v>30</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
@@ -6782,41 +7138,45 @@
         <v>27</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -6824,22 +7184,24 @@
         <v>19</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
@@ -6849,22 +7211,24 @@
         <v>38</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
@@ -6872,22 +7236,24 @@
         <v>30</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -6897,22 +7263,24 @@
         <v>38</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
@@ -6920,22 +7288,24 @@
         <v>23</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
@@ -6945,41 +7315,45 @@
         <v>30</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
@@ -6987,22 +7361,24 @@
         <v>19</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="26" t="str">
+      <c r="G29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
@@ -7012,22 +7388,24 @@
         <v>40</v>
       </c>
       <c r="C30" s="23"/>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="26" t="str">
+      <c r="G30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
@@ -7035,22 +7413,24 @@
         <v>23</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -7060,22 +7440,24 @@
         <v>40</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -7083,22 +7465,24 @@
         <v>27</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
@@ -7115,64 +7499,64 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="37" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="40"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="11"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="37" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -7213,10 +7597,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="44"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="18" t="s">
         <v>18</v>
       </c>
@@ -7237,13 +7621,15 @@
         <v>21</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
     </row>
@@ -7256,13 +7642,15 @@
         <v>22</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
@@ -7272,20 +7660,22 @@
         <v>23</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
@@ -7297,20 +7687,22 @@
         <v>26</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
@@ -7320,20 +7712,22 @@
         <v>27</v>
       </c>
       <c r="C45" s="23"/>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
@@ -7345,20 +7739,22 @@
         <v>26</v>
       </c>
       <c r="C46" s="23"/>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
@@ -7368,22 +7764,24 @@
         <v>30</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
@@ -7393,41 +7791,45 @@
         <v>23</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="26" t="str">
+      <c r="G49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="25" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="25"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -7435,22 +7837,24 @@
         <v>19</v>
       </c>
       <c r="C50" s="23"/>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="26" t="str">
+      <c r="G50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="25" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
@@ -7460,22 +7864,24 @@
         <v>36</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="26" t="str">
+      <c r="G51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="25" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="25"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
@@ -7483,22 +7889,24 @@
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="26" t="str">
+      <c r="G52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="25" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
@@ -7508,22 +7916,24 @@
         <v>36</v>
       </c>
       <c r="C53" s="23"/>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="26" t="str">
+      <c r="G53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="25" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="25"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22"/>
@@ -7531,22 +7941,24 @@
         <v>30</v>
       </c>
       <c r="C54" s="23"/>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="26" t="str">
+      <c r="G54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="25" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
@@ -7556,41 +7968,45 @@
         <v>27</v>
       </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="26" t="str">
+      <c r="G55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="25" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="25"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="26" t="str">
+      <c r="G56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="25" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22"/>
@@ -7598,22 +8014,24 @@
         <v>19</v>
       </c>
       <c r="C57" s="23"/>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="16"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="26" t="str">
+      <c r="G57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="25" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="26"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="n">
@@ -7623,22 +8041,24 @@
         <v>38</v>
       </c>
       <c r="C58" s="23"/>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="26" t="str">
+      <c r="G58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="25" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="26"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="22"/>
@@ -7646,22 +8066,24 @@
         <v>30</v>
       </c>
       <c r="C59" s="23"/>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="26" t="str">
+      <c r="G59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="25" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="25"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
@@ -7671,22 +8093,24 @@
         <v>38</v>
       </c>
       <c r="C60" s="23"/>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="26" t="str">
+      <c r="G60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="25" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
@@ -7694,22 +8118,24 @@
         <v>23</v>
       </c>
       <c r="C61" s="23"/>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="26" t="str">
+      <c r="G61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="25" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="26"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
@@ -7719,41 +8145,45 @@
         <v>30</v>
       </c>
       <c r="C62" s="23"/>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="26" t="str">
+      <c r="G62" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="25" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="25"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="32"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="26" t="str">
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="25" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="26"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22"/>
@@ -7761,22 +8191,24 @@
         <v>19</v>
       </c>
       <c r="C64" s="23"/>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="26" t="str">
+      <c r="G64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="25" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="n">
@@ -7786,22 +8218,24 @@
         <v>40</v>
       </c>
       <c r="C65" s="23"/>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="26" t="str">
+      <c r="G65" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="25" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="26"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
@@ -7809,22 +8243,24 @@
         <v>23</v>
       </c>
       <c r="C66" s="23"/>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="26" t="str">
+      <c r="G66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="25" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="n">
@@ -7834,22 +8270,24 @@
         <v>40</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="26" t="str">
+      <c r="G67" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="25" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="22"/>
@@ -7857,22 +8295,24 @@
         <v>27</v>
       </c>
       <c r="C68" s="23"/>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="26" t="str">
+      <c r="G68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="25" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="26"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="25"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
